--- a/app/src/main/res/raw/classeur1.xlsx
+++ b/app/src/main/res/raw/classeur1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAM\AndroidStudioProjects\GestionnaireRapportDeChantier\app\src\main\res\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAM\Documents\Projets Android\GestionnairedeChantiers\app\src\main\res\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAF4A84-4CC2-4CB4-B42F-FA907239D617}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D20134E-CD95-4822-9A98-3268806AD537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E94DD0B4-2538-46A7-9EF2-B06A21E8DC84}"/>
+    <workbookView xWindow="28680" yWindow="-5460" windowWidth="51840" windowHeight="21240" xr2:uid="{E94DD0B4-2538-46A7-9EF2-B06A21E8DC84}"/>
   </bookViews>
   <sheets>
     <sheet name="feuille 1" sheetId="2" r:id="rId1"/>
@@ -23,12 +23,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="77">
   <si>
     <t xml:space="preserve">RAPPORT HEBDOMADAIRE    23 /11    au  27 / 11 / 2020 </t>
   </si>
@@ -208,49 +216,10 @@
     </r>
   </si>
   <si>
-    <t>Petit matériel (souffleur/taille haies/deb)</t>
-  </si>
-  <si>
-    <t>Mini-pelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fourgon / Renault R / Trafic</t>
-  </si>
-  <si>
-    <t>Tondeuse 4000</t>
-  </si>
-  <si>
-    <t>Tondeuse 3 lames - 3280 bac</t>
-  </si>
-  <si>
-    <t>Tondeuse 3 lames recycler 7200 + PLH800</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mardi </t>
   </si>
   <si>
-    <t xml:space="preserve">Tondeuse 2 lames stand up </t>
-  </si>
-  <si>
-    <t>Tondeuse 1 lame autotractée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracteur </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracteur + equipement cuve de traitement </t>
-  </si>
-  <si>
-    <t>Tracteur + Broyeur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aspirateur </t>
-  </si>
-  <si>
     <t xml:space="preserve">Mercredi </t>
-  </si>
-  <si>
-    <t>Broyeur Koppel</t>
   </si>
   <si>
     <t xml:space="preserve">MATERIEL DE LOCATION </t>
@@ -970,30 +939,207 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1006,199 +1152,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1519,7 +1488,7 @@
   <dimension ref="A1:U64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+      <selection activeCell="A21" sqref="A21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,50 +1508,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
     </row>
     <row r="2" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="97"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="33"/>
       <c r="S2" s="24" t="s">
         <v>2</v>
       </c>
@@ -1591,11 +1560,11 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
         <v>5</v>
@@ -1621,26 +1590,26 @@
       <c r="L3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="79" t="s">
+      <c r="M3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="82" t="s">
+      <c r="N3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="85" t="s">
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="86"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="28"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="48"/>
     </row>
     <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="20"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -1652,20 +1621,20 @@
         <f>SUM(F4:K4)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="80"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="28"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
       <c r="E5" s="20"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -1677,20 +1646,20 @@
         <f>SUM(F5:K5)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="28"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="48"/>
     </row>
     <row r="6" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="20"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -1702,24 +1671,24 @@
         <f>SUM(F6:K6)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="80"/>
-      <c r="N6" s="82" t="s">
+      <c r="M6" s="36"/>
+      <c r="N6" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="71" t="s">
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R6" s="71"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="28"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="48"/>
     </row>
     <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="20"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -1731,20 +1700,20 @@
         <f>SUM(F7:K7)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="81"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="28"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="48"/>
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="20"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
@@ -1753,29 +1722,29 @@
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
       <c r="L8" s="19">
-        <f t="shared" ref="L5:L13" si="0">SUM(F8:K8)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="74" t="s">
+        <f t="shared" ref="L8:L13" si="0">SUM(F8:K8)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="76" t="s">
+      <c r="N8" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="77" t="s">
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="78"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="20"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -1787,20 +1756,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M9" s="74"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
     </row>
     <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="20"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -1812,24 +1781,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M10" s="74"/>
-      <c r="N10" s="76" t="s">
+      <c r="M10" s="54"/>
+      <c r="N10" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="77" t="s">
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="R10" s="78"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="20"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
@@ -1841,20 +1810,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="75"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="20"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -1866,24 +1835,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="65" t="s">
+      <c r="M12" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="68" t="s">
+      <c r="N12" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="20"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
@@ -1895,24 +1864,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="66"/>
-      <c r="N13" s="68" t="s">
+      <c r="M13" s="60"/>
+      <c r="N13" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="22" t="s">
         <v>5</v>
       </c>
@@ -1937,22 +1906,22 @@
       <c r="L14" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="66"/>
-      <c r="N14" s="68" t="s">
+      <c r="M14" s="60"/>
+      <c r="N14" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="20"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -1964,22 +1933,22 @@
         <f>SUM(F15:K15)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="66"/>
-      <c r="N15" s="68" t="s">
+      <c r="M15" s="60"/>
+      <c r="N15" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
       <c r="E16" s="20"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -1988,25 +1957,25 @@
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19">
-        <f t="shared" ref="L16:L19" si="1">SUM(F16:K16)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="66"/>
-      <c r="N16" s="68" t="s">
+        <f t="shared" ref="L16:L18" si="1">SUM(F16:K16)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="60"/>
+      <c r="N16" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="20"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
@@ -2018,22 +1987,22 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M17" s="66"/>
-      <c r="N17" s="68" t="s">
+      <c r="M17" s="60"/>
+      <c r="N17" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="20"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -2045,22 +2014,22 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M18" s="67"/>
-      <c r="N18" s="68" t="s">
+      <c r="M18" s="61"/>
+      <c r="N18" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="20"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
@@ -2072,23 +2041,23 @@
         <f>SUM(F19:K19)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="39" t="s">
+      <c r="M19" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
       <c r="S19" s="23"/>
       <c r="T19" s="23"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="21" t="s">
         <v>34</v>
       </c>
@@ -2138,11 +2107,9 @@
       <c r="T20" s="12"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="17"/>
       <c r="E21" s="20"/>
       <c r="F21" s="19"/>
@@ -2155,21 +2122,19 @@
         <f>SUM(F21:K21)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="43"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="76"/>
+      <c r="T21" s="76"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
       <c r="D22" s="17"/>
       <c r="E22" s="20"/>
       <c r="F22" s="19"/>
@@ -2182,21 +2147,19 @@
         <f t="shared" ref="L22:L33" si="2">SUM(F22:K22)</f>
         <v>0</v>
       </c>
-      <c r="M22" s="46"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
       <c r="D23" s="17"/>
       <c r="E23" s="20"/>
       <c r="F23" s="19"/>
@@ -2209,21 +2172,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M23" s="46"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
       <c r="D24" s="17"/>
       <c r="E24" s="20"/>
       <c r="F24" s="19"/>
@@ -2236,21 +2197,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M24" s="46"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="77"/>
+      <c r="T24" s="77"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="17"/>
       <c r="E25" s="20"/>
       <c r="F25" s="19"/>
@@ -2263,21 +2222,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M25" s="49"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="78"/>
+      <c r="T25" s="78"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="17"/>
       <c r="E26" s="20"/>
       <c r="F26" s="19"/>
@@ -2291,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N26" s="8" t="s">
         <v>36</v>
@@ -2312,11 +2269,9 @@
       <c r="T26" s="12"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
       <c r="D27" s="17"/>
       <c r="E27" s="20"/>
       <c r="F27" s="19"/>
@@ -2329,21 +2284,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M27" s="43"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="76"/>
+      <c r="T27" s="76"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
       <c r="D28" s="17"/>
       <c r="E28" s="20"/>
       <c r="F28" s="19"/>
@@ -2356,21 +2309,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M28" s="46"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="77"/>
+      <c r="T28" s="77"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="17"/>
       <c r="E29" s="20"/>
       <c r="F29" s="19"/>
@@ -2383,21 +2334,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M29" s="46"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="77"/>
+      <c r="T29" s="77"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="17"/>
       <c r="E30" s="20"/>
       <c r="F30" s="19"/>
@@ -2410,21 +2359,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M30" s="46"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="77"/>
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="17"/>
       <c r="E31" s="20"/>
       <c r="F31" s="19"/>
@@ -2437,21 +2384,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M31" s="49"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="75"/>
+      <c r="S31" s="78"/>
+      <c r="T31" s="78"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="79"/>
       <c r="D32" s="17"/>
       <c r="E32" s="20"/>
       <c r="F32" s="19"/>
@@ -2465,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="N32" s="8" t="s">
         <v>36</v>
@@ -2486,11 +2431,9 @@
       <c r="T32" s="12"/>
     </row>
     <row r="33" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
       <c r="D33" s="17"/>
       <c r="E33" s="20"/>
       <c r="F33" s="19"/>
@@ -2503,46 +2446,46 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M33" s="43"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="69"/>
+      <c r="S33" s="76"/>
+      <c r="T33" s="76"/>
     </row>
     <row r="34" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="53"/>
+      <c r="A34" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="77"/>
+      <c r="T34" s="77"/>
     </row>
     <row r="35" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="62"/>
+      <c r="A35" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="65"/>
       <c r="C35" s="18" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>34</v>
@@ -2571,18 +2514,18 @@
       <c r="L35" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M35" s="46"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="53"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="72"/>
+      <c r="S35" s="77"/>
+      <c r="T35" s="77"/>
     </row>
     <row r="36" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="63"/>
-      <c r="B36" s="63"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="80"/>
       <c r="C36" s="15"/>
       <c r="D36" s="17"/>
       <c r="E36" s="16"/>
@@ -2596,18 +2539,18 @@
         <f>SUM(F36:K36)</f>
         <v>0</v>
       </c>
-      <c r="M36" s="46"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="77"/>
+      <c r="T36" s="77"/>
     </row>
     <row r="37" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="63"/>
-      <c r="B37" s="64"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="15"/>
       <c r="D37" s="17"/>
       <c r="E37" s="16"/>
@@ -2618,21 +2561,21 @@
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
       <c r="L37" s="19">
-        <f t="shared" ref="L36:L41" si="3">SUM(F37:K37)</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="49"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="54"/>
-      <c r="T37" s="54"/>
+        <f t="shared" ref="L37:L41" si="3">SUM(F37:K37)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="73"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="75"/>
+      <c r="S37" s="78"/>
+      <c r="T37" s="78"/>
     </row>
     <row r="38" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="63"/>
-      <c r="B38" s="64"/>
+      <c r="A38" s="80"/>
+      <c r="B38" s="66"/>
       <c r="C38" s="15"/>
       <c r="D38" s="17"/>
       <c r="E38" s="16"/>
@@ -2647,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="N38" s="8" t="s">
         <v>36</v>
@@ -2668,8 +2611,8 @@
       <c r="T38" s="12"/>
     </row>
     <row r="39" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="63"/>
-      <c r="B39" s="64"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="66"/>
       <c r="C39" s="15"/>
       <c r="D39" s="17"/>
       <c r="E39" s="16"/>
@@ -2683,18 +2626,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M39" s="43"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
+      <c r="M39" s="67"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="68"/>
+      <c r="Q39" s="68"/>
+      <c r="R39" s="69"/>
+      <c r="S39" s="76"/>
+      <c r="T39" s="76"/>
     </row>
     <row r="40" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="63"/>
-      <c r="B40" s="64"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="66"/>
       <c r="C40" s="15"/>
       <c r="D40" s="17"/>
       <c r="E40" s="16"/>
@@ -2708,18 +2651,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M40" s="46"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="53"/>
-      <c r="T40" s="53"/>
+      <c r="M40" s="70"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="71"/>
+      <c r="Q40" s="71"/>
+      <c r="R40" s="72"/>
+      <c r="S40" s="77"/>
+      <c r="T40" s="77"/>
     </row>
     <row r="41" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="63"/>
-      <c r="B41" s="64"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="66"/>
       <c r="C41" s="15"/>
       <c r="D41" s="17"/>
       <c r="E41" s="16"/>
@@ -2733,48 +2676,48 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M41" s="46"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="48"/>
-      <c r="S41" s="53"/>
-      <c r="T41" s="53"/>
+      <c r="M41" s="70"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="72"/>
+      <c r="S41" s="77"/>
+      <c r="T41" s="77"/>
     </row>
     <row r="42" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="61"/>
-      <c r="L42" s="61"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="53"/>
-      <c r="T42" s="53"/>
+      <c r="A42" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="81"/>
+      <c r="K42" s="81"/>
+      <c r="L42" s="81"/>
+      <c r="M42" s="70"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="71"/>
+      <c r="P42" s="71"/>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="72"/>
+      <c r="S42" s="77"/>
+      <c r="T42" s="77"/>
     </row>
     <row r="43" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>34</v>
@@ -2803,14 +2746,14 @@
       <c r="L43" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M43" s="49"/>
-      <c r="N43" s="50"/>
-      <c r="O43" s="50"/>
-      <c r="P43" s="50"/>
-      <c r="Q43" s="50"/>
-      <c r="R43" s="51"/>
-      <c r="S43" s="54"/>
-      <c r="T43" s="54"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="74"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="74"/>
+      <c r="R43" s="75"/>
+      <c r="S43" s="78"/>
+      <c r="T43" s="78"/>
     </row>
     <row r="44" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
@@ -2829,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="N44" s="8" t="s">
         <v>36</v>
@@ -2862,17 +2805,17 @@
       <c r="J45" s="19"/>
       <c r="K45" s="19"/>
       <c r="L45" s="19">
-        <f t="shared" ref="L44:L50" si="4">SUM(F45:K45)</f>
-        <v>0</v>
-      </c>
-      <c r="M45" s="43"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="44"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="45"/>
-      <c r="S45" s="52"/>
-      <c r="T45" s="52"/>
+        <f t="shared" ref="L45:L50" si="4">SUM(F45:K45)</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="67"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="68"/>
+      <c r="P45" s="68"/>
+      <c r="Q45" s="68"/>
+      <c r="R45" s="69"/>
+      <c r="S45" s="76"/>
+      <c r="T45" s="76"/>
     </row>
     <row r="46" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
@@ -2890,14 +2833,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M46" s="46"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="47"/>
-      <c r="P46" s="47"/>
-      <c r="Q46" s="47"/>
-      <c r="R46" s="48"/>
-      <c r="S46" s="53"/>
-      <c r="T46" s="53"/>
+      <c r="M46" s="70"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="77"/>
+      <c r="T46" s="77"/>
     </row>
     <row r="47" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
@@ -2915,14 +2858,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M47" s="46"/>
-      <c r="N47" s="47"/>
-      <c r="O47" s="47"/>
-      <c r="P47" s="47"/>
-      <c r="Q47" s="47"/>
-      <c r="R47" s="48"/>
-      <c r="S47" s="53"/>
-      <c r="T47" s="53"/>
+      <c r="M47" s="70"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="71"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="72"/>
+      <c r="S47" s="77"/>
+      <c r="T47" s="77"/>
     </row>
     <row r="48" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
@@ -2940,14 +2883,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M48" s="46"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="47"/>
-      <c r="R48" s="48"/>
-      <c r="S48" s="53"/>
-      <c r="T48" s="53"/>
+      <c r="M48" s="70"/>
+      <c r="N48" s="71"/>
+      <c r="O48" s="71"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="72"/>
+      <c r="S48" s="77"/>
+      <c r="T48" s="77"/>
     </row>
     <row r="49" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
@@ -2965,14 +2908,14 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M49" s="49"/>
-      <c r="N49" s="50"/>
-      <c r="O49" s="50"/>
-      <c r="P49" s="50"/>
-      <c r="Q49" s="50"/>
-      <c r="R49" s="51"/>
-      <c r="S49" s="54"/>
-      <c r="T49" s="54"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="74"/>
+      <c r="P49" s="74"/>
+      <c r="Q49" s="74"/>
+      <c r="R49" s="75"/>
+      <c r="S49" s="78"/>
+      <c r="T49" s="78"/>
     </row>
     <row r="50" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
@@ -2991,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="N50" s="8" t="s">
         <v>36</v>
@@ -3012,43 +2955,43 @@
       <c r="T50" s="12"/>
     </row>
     <row r="51" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="44"/>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="45"/>
-      <c r="S51" s="52"/>
-      <c r="T51" s="52"/>
+      <c r="A51" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="83"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="83"/>
+      <c r="J51" s="83"/>
+      <c r="K51" s="83"/>
+      <c r="L51" s="84"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="68"/>
+      <c r="O51" s="68"/>
+      <c r="P51" s="68"/>
+      <c r="Q51" s="68"/>
+      <c r="R51" s="69"/>
+      <c r="S51" s="76"/>
+      <c r="T51" s="76"/>
     </row>
     <row r="52" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="E52" s="58"/>
+        <v>56</v>
+      </c>
+      <c r="D52" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" s="85"/>
       <c r="F52" s="10" t="s">
         <v>6</v>
       </c>
@@ -3070,365 +3013,436 @@
       <c r="L52" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M52" s="46"/>
-      <c r="N52" s="47"/>
-      <c r="O52" s="47"/>
-      <c r="P52" s="47"/>
-      <c r="Q52" s="47"/>
-      <c r="R52" s="48"/>
-      <c r="S52" s="53"/>
-      <c r="T52" s="53"/>
+      <c r="M52" s="70"/>
+      <c r="N52" s="71"/>
+      <c r="O52" s="71"/>
+      <c r="P52" s="71"/>
+      <c r="Q52" s="71"/>
+      <c r="R52" s="72"/>
+      <c r="S52" s="77"/>
+      <c r="T52" s="77"/>
     </row>
     <row r="53" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="98"/>
-      <c r="F53" s="98"/>
-      <c r="G53" s="98"/>
-      <c r="H53" s="98"/>
-      <c r="I53" s="98"/>
-      <c r="J53" s="98"/>
-      <c r="K53" s="98"/>
-      <c r="L53" s="98">
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25">
         <f>SUM(F53:K53)</f>
         <v>0</v>
       </c>
-      <c r="M53" s="46"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="47"/>
-      <c r="P53" s="47"/>
-      <c r="Q53" s="47"/>
-      <c r="R53" s="48"/>
-      <c r="S53" s="53"/>
-      <c r="T53" s="53"/>
+      <c r="M53" s="70"/>
+      <c r="N53" s="71"/>
+      <c r="O53" s="71"/>
+      <c r="P53" s="71"/>
+      <c r="Q53" s="71"/>
+      <c r="R53" s="72"/>
+      <c r="S53" s="77"/>
+      <c r="T53" s="77"/>
     </row>
     <row r="54" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
-      <c r="C54" s="98"/>
-      <c r="D54" s="98"/>
-      <c r="E54" s="98"/>
-      <c r="F54" s="98"/>
-      <c r="G54" s="98"/>
-      <c r="H54" s="98"/>
-      <c r="I54" s="98"/>
-      <c r="J54" s="98"/>
-      <c r="K54" s="98"/>
-      <c r="L54" s="98">
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25">
         <f t="shared" ref="L54:L55" si="5">SUM(F54:K54)</f>
         <v>0</v>
       </c>
-      <c r="M54" s="46"/>
-      <c r="N54" s="47"/>
-      <c r="O54" s="47"/>
-      <c r="P54" s="47"/>
-      <c r="Q54" s="47"/>
-      <c r="R54" s="48"/>
-      <c r="S54" s="53"/>
-      <c r="T54" s="53"/>
+      <c r="M54" s="70"/>
+      <c r="N54" s="71"/>
+      <c r="O54" s="71"/>
+      <c r="P54" s="71"/>
+      <c r="Q54" s="71"/>
+      <c r="R54" s="72"/>
+      <c r="S54" s="77"/>
+      <c r="T54" s="77"/>
     </row>
     <row r="55" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
-      <c r="C55" s="98"/>
-      <c r="D55" s="98"/>
-      <c r="E55" s="98"/>
-      <c r="F55" s="98"/>
-      <c r="G55" s="98"/>
-      <c r="H55" s="98"/>
-      <c r="I55" s="98"/>
-      <c r="J55" s="98"/>
-      <c r="K55" s="98"/>
-      <c r="L55" s="98">
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M55" s="49"/>
-      <c r="N55" s="50"/>
-      <c r="O55" s="50"/>
-      <c r="P55" s="50"/>
-      <c r="Q55" s="50"/>
-      <c r="R55" s="51"/>
-      <c r="S55" s="54"/>
-      <c r="T55" s="54"/>
+      <c r="M55" s="73"/>
+      <c r="N55" s="74"/>
+      <c r="O55" s="74"/>
+      <c r="P55" s="74"/>
+      <c r="Q55" s="74"/>
+      <c r="R55" s="75"/>
+      <c r="S55" s="78"/>
+      <c r="T55" s="78"/>
     </row>
     <row r="56" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="N56" s="40"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="40"/>
-      <c r="R56" s="41"/>
+      <c r="A56" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="87"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="87"/>
+      <c r="H56" s="87"/>
+      <c r="I56" s="87"/>
+      <c r="J56" s="87"/>
+      <c r="K56" s="87"/>
+      <c r="L56" s="87"/>
+      <c r="M56" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="N56" s="51"/>
+      <c r="O56" s="51"/>
+      <c r="P56" s="51"/>
+      <c r="Q56" s="51"/>
+      <c r="R56" s="88"/>
       <c r="S56" s="8"/>
       <c r="T56" s="8"/>
     </row>
     <row r="57" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="29">
+      <c r="A57" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="89"/>
+      <c r="C57" s="90">
         <f>SUM(L4:L13)</f>
         <v>0</v>
       </c>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="N57" s="27"/>
-      <c r="O57" s="25"/>
-      <c r="P57" s="25"/>
-      <c r="Q57" s="25"/>
-      <c r="R57" s="25"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="49"/>
+      <c r="M57" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="N57" s="91"/>
+      <c r="O57" s="49"/>
+      <c r="P57" s="49"/>
+      <c r="Q57" s="49"/>
+      <c r="R57" s="49"/>
       <c r="S57" s="8"/>
       <c r="T57" s="8"/>
     </row>
     <row r="58" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="29">
+      <c r="A58" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="89"/>
+      <c r="C58" s="90">
         <f>SUM(L15:L19)</f>
         <v>0</v>
       </c>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="N58" s="27"/>
-      <c r="O58" s="25"/>
-      <c r="P58" s="25"/>
-      <c r="Q58" s="25"/>
-      <c r="R58" s="25"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="90"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="49"/>
+      <c r="M58" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="N58" s="91"/>
+      <c r="O58" s="49"/>
+      <c r="P58" s="49"/>
+      <c r="Q58" s="49"/>
+      <c r="R58" s="49"/>
       <c r="S58" s="8"/>
       <c r="T58" s="8"/>
     </row>
     <row r="59" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="29">
+      <c r="A59" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="89"/>
+      <c r="C59" s="90">
         <f>SUM(L21:L33)</f>
         <v>0</v>
       </c>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="N59" s="27"/>
-      <c r="O59" s="25"/>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="25"/>
-      <c r="R59" s="25"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="90"/>
+      <c r="F59" s="90"/>
+      <c r="G59" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="H59" s="95"/>
+      <c r="I59" s="95"/>
+      <c r="J59" s="95"/>
+      <c r="K59" s="95"/>
+      <c r="L59" s="95"/>
+      <c r="M59" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="N59" s="91"/>
+      <c r="O59" s="49"/>
+      <c r="P59" s="49"/>
+      <c r="Q59" s="49"/>
+      <c r="R59" s="49"/>
       <c r="S59" s="8"/>
       <c r="T59" s="8"/>
     </row>
     <row r="60" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="29">
+      <c r="A60" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="89"/>
+      <c r="C60" s="90">
         <f>SUM(L36:L41)</f>
         <v>0</v>
       </c>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="N60" s="27"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="25"/>
-      <c r="R60" s="25"/>
+      <c r="D60" s="90"/>
+      <c r="E60" s="90"/>
+      <c r="F60" s="90"/>
+      <c r="G60" s="94"/>
+      <c r="H60" s="95"/>
+      <c r="I60" s="95"/>
+      <c r="J60" s="95"/>
+      <c r="K60" s="95"/>
+      <c r="L60" s="95"/>
+      <c r="M60" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="N60" s="91"/>
+      <c r="O60" s="49"/>
+      <c r="P60" s="49"/>
+      <c r="Q60" s="49"/>
+      <c r="R60" s="49"/>
       <c r="S60" s="8"/>
       <c r="T60" s="8"/>
     </row>
     <row r="61" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B61" s="26"/>
-      <c r="C61" s="29">
+      <c r="A61" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="89"/>
+      <c r="C61" s="90">
         <f>SUM(L44:L50)</f>
         <v>0</v>
       </c>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="N61" s="27"/>
-      <c r="O61" s="25"/>
-      <c r="P61" s="25"/>
-      <c r="Q61" s="25"/>
-      <c r="R61" s="25"/>
+      <c r="D61" s="90"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="90"/>
+      <c r="G61" s="94" t="s">
+        <v>70</v>
+      </c>
+      <c r="H61" s="95"/>
+      <c r="I61" s="95"/>
+      <c r="J61" s="95"/>
+      <c r="K61" s="95"/>
+      <c r="L61" s="95"/>
+      <c r="M61" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="N61" s="91"/>
+      <c r="O61" s="49"/>
+      <c r="P61" s="49"/>
+      <c r="Q61" s="49"/>
+      <c r="R61" s="49"/>
       <c r="S61" s="8"/>
       <c r="T61" s="8"/>
     </row>
     <row r="62" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="99">
+      <c r="A62" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="89"/>
+      <c r="C62" s="96">
         <f>SUM(L53:L55)</f>
         <v>0</v>
       </c>
-      <c r="D62" s="100"/>
-      <c r="E62" s="100"/>
-      <c r="F62" s="101"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="N62" s="27"/>
-      <c r="O62" s="28"/>
-      <c r="P62" s="28"/>
-      <c r="Q62" s="28"/>
-      <c r="R62" s="28"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="97"/>
+      <c r="F62" s="98"/>
+      <c r="G62" s="94"/>
+      <c r="H62" s="95"/>
+      <c r="I62" s="95"/>
+      <c r="J62" s="95"/>
+      <c r="K62" s="95"/>
+      <c r="L62" s="95"/>
+      <c r="M62" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="N62" s="91"/>
+      <c r="O62" s="48"/>
+      <c r="P62" s="48"/>
+      <c r="Q62" s="48"/>
+      <c r="R62" s="48"/>
       <c r="S62" s="8"/>
       <c r="T62" s="8"/>
     </row>
     <row r="63" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B63" s="26"/>
-      <c r="C63" s="29">
+      <c r="A63" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="89"/>
+      <c r="C63" s="90">
         <f>SUM(C57,C58)</f>
         <v>0</v>
       </c>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="N63" s="32"/>
-      <c r="O63" s="32"/>
-      <c r="P63" s="32"/>
-      <c r="Q63" s="32"/>
-      <c r="R63" s="32"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="99"/>
+      <c r="H63" s="100"/>
+      <c r="I63" s="100"/>
+      <c r="J63" s="100"/>
+      <c r="K63" s="100"/>
+      <c r="L63" s="100"/>
+      <c r="M63" s="101" t="s">
+        <v>74</v>
+      </c>
+      <c r="N63" s="101"/>
+      <c r="O63" s="101"/>
+      <c r="P63" s="101"/>
+      <c r="Q63" s="101"/>
+      <c r="R63" s="101"/>
       <c r="S63" s="8"/>
       <c r="T63" s="8"/>
     </row>
     <row r="64" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="34"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="34"/>
-      <c r="O64" s="34"/>
-      <c r="P64" s="34"/>
+      <c r="B64" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="92"/>
+      <c r="D64" s="92"/>
+      <c r="E64" s="92"/>
+      <c r="F64" s="92"/>
+      <c r="G64" s="93"/>
+      <c r="H64" s="93"/>
+      <c r="I64" s="93"/>
+      <c r="J64" s="93"/>
+      <c r="K64" s="93"/>
+      <c r="L64" s="93"/>
+      <c r="M64" s="93"/>
+      <c r="N64" s="93"/>
+      <c r="O64" s="93"/>
+      <c r="P64" s="93"/>
       <c r="Q64" s="7" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="S64" s="6"/>
       <c r="T64" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="M3:M7"/>
-    <mergeCell ref="N3:P5"/>
-    <mergeCell ref="Q3:R5"/>
-    <mergeCell ref="S3:S5"/>
-    <mergeCell ref="T3:T5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="N6:P7"/>
+    <mergeCell ref="M63:R63"/>
+    <mergeCell ref="B64:P64"/>
+    <mergeCell ref="O60:R60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="G61:L62"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:R58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="O59:R59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O61:R61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O62:R62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="G63:L63"/>
+    <mergeCell ref="A56:L56"/>
+    <mergeCell ref="M56:R56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="G57:L58"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:R57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="M45:R49"/>
+    <mergeCell ref="S45:S49"/>
+    <mergeCell ref="T45:T49"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="M51:R55"/>
+    <mergeCell ref="S51:S55"/>
+    <mergeCell ref="T51:T55"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="M39:R43"/>
+    <mergeCell ref="S39:S43"/>
+    <mergeCell ref="T39:T43"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="M27:R31"/>
+    <mergeCell ref="S27:S31"/>
+    <mergeCell ref="T27:T31"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="M33:R37"/>
+    <mergeCell ref="S33:S37"/>
+    <mergeCell ref="T33:T37"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="M21:R25"/>
+    <mergeCell ref="S21:S25"/>
+    <mergeCell ref="T21:T25"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="N17:R17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="N18:R18"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="M19:R19"/>
     <mergeCell ref="Q6:R7"/>
@@ -3453,93 +3467,22 @@
     <mergeCell ref="N12:R12"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="N13:R13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="M21:R25"/>
-    <mergeCell ref="S21:S25"/>
-    <mergeCell ref="T21:T25"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="M39:R43"/>
-    <mergeCell ref="S39:S43"/>
-    <mergeCell ref="T39:T43"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="M27:R31"/>
-    <mergeCell ref="S27:S31"/>
-    <mergeCell ref="T27:T31"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="M33:R37"/>
-    <mergeCell ref="S33:S37"/>
-    <mergeCell ref="T33:T37"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="M45:R49"/>
-    <mergeCell ref="S45:S49"/>
-    <mergeCell ref="T45:T49"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="M51:R55"/>
-    <mergeCell ref="S51:S55"/>
-    <mergeCell ref="T51:T55"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="M56:R56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="G57:L58"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="O57:R57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="B64:P64"/>
-    <mergeCell ref="O60:R60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="G61:L62"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:R58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="O59:R59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O61:R61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="O62:R62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="G63:L63"/>
-    <mergeCell ref="M63:R63"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="M3:M7"/>
+    <mergeCell ref="N3:P5"/>
+    <mergeCell ref="Q3:R5"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="N6:P7"/>
   </mergeCells>
   <pageMargins left="0.34" right="0.25" top="0.38" bottom="0.17" header="0.3" footer="0.17"/>
   <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
